--- a/biology/Zoologie/Choucador_superbe/Choucador_superbe.xlsx
+++ b/biology/Zoologie/Choucador_superbe/Choucador_superbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis superbus
 Le Choucador superbe ou Spréo superbe (Lamprotornis superbus) est une espèce d'oiseaux de la famille des Sturnidae et que l'on rencontre en Afrique de l'Est. C'est une espèce facilement reconnaissable à son ventre couleur noisette et à ses parties supérieures bleu-noir iridescentes.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 18 à 19 cm de long. Les adultes ont la tête noire et le dos, le haut de la poitrine, les ailes et la queue d'un bleu-vert irisé. Le ventre est rouge-orangé, séparé de la poitrine bleue par une barre blanche. Le dessous de la queue et l'intérieur du dessous des ailes est blanc. Les juvéniles ont un plumage plus terne et une très fine bande blanche sur la poitrine. Leur iris est brun, puis gris-blanc, et finalement crème à terme chez l'adulte.
 Il a un chant haut et fort composé de trilles et de gazouillis. En milieu de journée, il a un chant plus doux aux mélodies répétées. Il existe plusieurs appels rauques, le plus complexe étant décrit comme un bruit strident, un crissement skerrrreeee-cherrrroo-tcherreeeeeet.
@@ -546,10 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Il se nourrit principalement d'insectes, de vers, de céréales et de fruits qu'il recherche sur le sol mais en milieu urbain il s'approche des humains pour se nourrir.
-Reproduction
-Il construit son nid dans des buissons, des arbres de taille moyenne et dans les rochers. À chaque couvée, la femelle pond environ 2 à 3 œufs qui sont incubés pendant quatorze  jours. Le soin des poussins est assuré par les deux parents.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement d'insectes, de vers, de céréales et de fruits qu'il recherche sur le sol mais en milieu urbain il s'approche des humains pour se nourrir.
 </t>
         </is>
       </c>
@@ -575,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est commun en Afrique de l'Est, et notamment en Éthiopie, en Somalie, en Ouganda, au Kenya et en Tanzanie.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il construit son nid dans des buissons, des arbres de taille moyenne et dans les rochers. À chaque couvée, la femelle pond environ 2 à 3 œufs qui sont incubés pendant quatorze  jours. Le soin des poussins est assuré par les deux parents.
 </t>
         </is>
       </c>
@@ -606,10 +629,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est commun en Afrique de l'Est, et notamment en Éthiopie, en Somalie, en Ouganda, au Kenya et en Tanzanie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Choucador_superbe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Choucador_superbe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis superbus était autrefois classé dans le genre Spreo sous le nom Spreo superbus.
 </t>
